--- a/exportorv2/test/Actor.xlsx
+++ b/exportorv2/test/Actor.xlsx
@@ -746,7 +746,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
